--- a/Inventory Update/SKU_QUANTITY_PRICE.xlsx
+++ b/Inventory Update/SKU_QUANTITY_PRICE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehrdad Pajuhaan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229C8AEB-7757-4C19-B073-67ED9CB6FEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E325075-A5DD-426D-9ACF-E25E5FD541A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,13 +1266,42 @@
           <a:br>
             <a:rPr lang="en-US" sz="1800"/>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Remove un usedf coloumns!</a:t>
+          </a:r>
           <a:br>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-US" sz="1800"/>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Remove this box!</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1581,7 +1610,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
